--- a/literature_research/FS_scopus/FS_policy.xlsx
+++ b/literature_research/FS_scopus/FS_policy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,15 +512,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>How trust is lost: the Food Systems Summit 2021 and the delegitimation of UN food governance</t>
+          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Social movements see participation formats of international organizations (IOs) with suspicion. They increasingly retreat from cooperation to contest IOs from the outside, because they fear co-optation without real policy impact. However, the Food and Agricultural Organization (FAO) was an exception to this trend because its opening up was seen as long-term dialogue facilitating discussions about the nature of food production, and because it created credible institutional mechanisms that were trusted by activists to give influence to farmers and peasant movements. Therefore, the food sovereignty movement participated within the FAO framework in a remarkably institutionalized way throughout the 2010s. But in 2019, when the United Nations (UN) announced to hold a food systems summit (United Nations Food Systems Summit (UNFSS)), this changed dramatically. The food sovereignty movement, many non-governmental organizations (NGOs), and eventually scientists, decided to boycott the summit, instead organizing an alternative Peoples’ Summit, and withdrawing from long-held institutional roles in the FAO. How can this be explained? This article traces the process from the announcement of the UNFSS to its implementation, stressing how institutional trust was damaged by several decisions in the process that undermined the good faith of activists. As we show in detail, the circumvention of established institutional mechanisms, and the feeling of betrayal on the side of the movement, was decisive for losing institutional trust. Importantly, a mixture of substantive and institutional changes in the context of UNFSS not only undermined the movement’s trust into the integrity and ability of the summit organizers, but thereby also provoked movement efforts to delegitimize UN food governance at large. © The Author(s) 2023.</t>
+          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -548,15 +548,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Examining the Criminal Aspects of the Indonesian Plant Varieties Regime and Farmer Protection for Food Sovereignty</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This research investigates the Plant Varieties Regime's role in safeguarding farmers’ rights in plant development and cultivation in Indonesia. Specifically, it scrutinizes criminal provisions concerning farmers accused of producing seeds without the right holder's consent, as evident in multiple court decisions. These verdicts have ignited legal debates that conflict with the principles of food sovereignty. Given that nearly 90% of corn plants are cultivated through traditional farmer knowledge, the increasing dependence on the seed industry disrupts agricultural practices passed down through generations. The Plant Variety Protection Act (PVP Act) inadvertently encourages seed industry monopolization. This paper advocates a coherent approach in compliance with Article 27(2) of the 1945 Constitution to address these legal issues and establish a just legal framework. The primary legal discourse centers on equitable protection, necessitating a re-evaluation of the PVP Law, which is perceived as restricting plant development opportunities and discriminating against farmers. Farmers, as stewards of seed development and livelihood, should not face criminal charges encroaching upon their rights. Employing a normative methodology involving statutory, conceptual, and case analyses, this study examines the criminal aspects and legal protection of farmers' rights in corn seed cultivation. Ultimately, the paper recommends revising the PVP Law, emphasizing the importance of coherent legal thinking when shaping criminal policies. On a practical level, it calls for collaborative efforts among stakeholders to bolster agricultural sovereignty, particularly in the corn sector, by prioritizing farmers’ rights. In summary, this research aims to provide recommendations for enhancing farmers' protection against the criminal provisions outlined in the PVP Act, which holds a pivotal role in shielding farmers engaged in corn seed cultivation. © 2023 by Author(s).</t>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -584,15 +584,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
+          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
+          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>“Listen to us”: small-scale farmers’ understandings of social-ecological changes and their drivers in Important Agricultural Heritage Systems</t>
+          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current social-ecological changes affect territories and people’s livelihoods worldwide. Many of these changes have detrimental effects on small-scale agricultural systems, with concomitant negative consequences on global and local food security and sovereignty. The objectives of this study were to explore (i) local knowledge on social-ecological changes and (ii) the perceived drivers of those changes occurring in a mountainscape and an islandscape in two Important Agricultural Heritage Systems of southern South America, both located within a Global Biodiversity Hotspot. This was done by conducting in-depth semi-structured interviews with local campesinos, whose livelihoods are based on the use and management of agrosilvopastoral systems. We found that local communities experience a wide range of globally and locally induced social-ecological changes acting in their territories. Campesinos mentioned 79 different observations of social-ecological changes and identified drivers for 77% of them. Changes in the atmospheric system, specifically regarding changes in precipitation, drought, and temperatures, were commonly observed by campesinos in both sites. Participants also observed complex interrelations between these changes and the drivers influencing them, climatic drivers being the most important. Even though general changes in climatic patterns were identified as drivers of changes by campesinos, other situated changes derived from the site’s biophysical, social, and economic conditions were also important. Our results highlight the importance of considering local knowledge to understand social-ecological changes and to support the development and implementation of public policies that promote contextualized adaptation measures to global changes that affect local livelihoods. © 2023, The Author(s).</t>
+          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sustainable farm work in agroecology: how do systemic factors matter?</t>
+          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Agroecological farming is widely considered to reconcile improved working and living conditions of farmers while promoting social, economic, and ecological sustainability. However, most existing research primarily focuses on relatively narrow trade-offs between workload, economic and ecological outcomes at farm level and overlooks the critical role of contextual factors. This article conducts a critical literature review on the complex nature of agroecological farm work and proposes the holistic concept of sustainable farm work (SFW) in agroecology together with a heuristic evaluation framework. The latter was applied to ten case studies to test its relevance, affirming positive outcomes of agroecology on SFW, such as improved food sovereignty, biodiversity conservation, and social inclusiveness, but also showing trade-offs, including increased workload and potential yield reductions. Further, results show that contextual factors, such as policy support, market regulation, and access to resources, heavily influence the impact of agroecological practices on SFW. This article strongly argues for the importance of a holistic understanding of SFW and its contextualization within multiple socio-ecological system levels. The proposed framework establishes clear relationships between agroecology and SFW. An explicit recognition of these multidimensional relationships is essential for maximizing positive outcomes of agroecology in different contexts and fostering SFW. On a theoretical level, this research concludes that, from a holistic perspective, work is an entry point to studying the potential of agroecology to drive a sustainable agroecological transition in economic, social, and ecological terms. © The Author(s) 2024.</t>
+          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Accessing biological control genetic resources and sharing benefits resulting from their utilization</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>With the adoption of the Convention on Biological Diversity (CBD) in 1992, the sovereign rights of states over their natural resources were explicitly recognized and the authority of national governments to determine access to genetic resources confirmed. The CBD had a major impact on the global exchange of genetic resources, including genetic resources for food and agriculture. At national level, the CBD triggered the development of access and benefit-sharing (ABS) measures through which governments aim to enforce national sovereignty over genetic resources with the aim to partake in the benefits derived from the use of these resources. At global level, the CBD triggered multiple normative initiatives, including the adoption of an international instrument on plant genetic resources and the development of a Protocol to the CBD. The history of the Commission on Genetic Resources for Food and Agriculture, established in 1983 by the Food and Agriculture Organization of the United Nations (FAO), is paradigmatic for the historical transition from “common heritage” to “national sovereignty” over biological diversity, including genetic resources. This article briefly recapitulates key milestones in the development of ABS policies and measures. The article identifies some of the difficulties ABS measures may create for relevant stakeholders, in particular the biological control sector and explores options for this sector to cope with the new reality of the Nagoya Protocol and the diversity of national ABS measures. It is of pivotal importance that national governments when developing and implementing ABS measures take into account the distinctive needs and features of the food and agriculture sector, including those of the biological control sector. © 2023, Food and Agriculture Organization of the United Nations, under exclusive licence to International Organization for Biological Control.</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unraveling On-Farm Wheat Loss in Fars Province, Iran: A Qualitative Analysis and Exploration of Potential Solutions with Emphasis on Agricultural Cooperatives</t>
+          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Given wheat’s global significance as a primary food crop, and its importance in providing essential nutrition to millions of people worldwide, reducing on-farm losses is crucial to promoting food security, sustainable agriculture, and economic stability. Wheat plays a critical role in food security in Iran, as it is a staple food consumed daily by a large proportion of the population, and is also a vital component of the country’s food self-sufficiency policy. The present study aims to identify the causes and extent of on-farm wheat loss in Fars province, a major wheat-producing area in Iran. Nine experts were interviewed, using open-ended questions, in October 2018. The study revealed that a considerable amount of wheat is lost due to seed overuse, pest infestation, and improper harvesting. The paper discusses the underlying factors associated with these over-arching causes, and highlights their adverse environmental, economic, and societal impacts. The paper also explores potential approaches to take in addressing the issue, and suggests empowering agricultural cooperatives through changes in the government’s engagement with wheat production. This study provides valuable insights for policymakers and stakeholders which are useful for developing effective strategies to reduce on-farm loss, particularly in countries where intensified farming is promoted. These strategies may include limiting the government’s central control and, instead, empowering agricultural cooperatives, as well as adopting supportive approaches, such as improving farmers’ access to proper machinery, and enhancing their sovereignty and freedom. © 2023 by the authors.</t>
+          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,15 +764,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The role of land as the central piece to sustainable food systems: Lessons learned from Portugal national food-related policies</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>This paper discusses to what extent land is considered in food-related policies from a systemic perspective. Based on existing literature and international agendas priorities, we argue that access to and preservation of land for food along the food chain play a major role in sustainable food systems. To further explore this argument, we address the following question: Where does land stand in sectorial and national food-related policies? The multiple dimensions and implications of food systems and the international agenda's priorities namely the “Right to adequate Food”, “Food Sovereignty” and the “Right to Land”, were used as our conceptual framework. To work out how land is being considered in food sectorial policies, both quantitative and qualitative methods were applied to examine ten Portuguese national food-related policies. Results are showing a lack of consideration for land access and land preservation, needed all along the food chain to build a national sustainable food system. On the other hand, there is a gap between current grassroots priorities international agendas and food-related national policies. Such a situation strongly suggests that building a sustainable food system needs a clear food territorial perspective, still neglected, and shifting from sectorial policies towards a more integrated food system approach, that will include land as a central piece. © 2023</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Between eating enough and the desire to eat: the state of the art on sovereignty and food and nutritional security in Brazil; [Entre comer à vontade e a vontade de comer: o estado da arte sobre soberania e segurança alimentar e nutricional no Brasil]</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>The article aims to identify the main debates on Food and Nutritional Sovereignty and Security considering a broad approach and legal publications in order to comprehend the theme in a multidisciplinary way and to locate possible research gaps. It proceeds a bibliographical and systematical review (state of the art) that was carried out in the 5-year time frame (2016-2020), and restricted to journals available at SciElo and theses and dissertations from Master's and Doctoral programs at Capes. With qualitative data analysis approach and the deductive method, a critical analysis of the data was done. The results were divided into three categories: environment; human rights and political-economical. It concludes that the use of pesticides, the counter-hegemonic discourse and the analysis of public policies, especially those directed to family farmers, are approaches with the highest incidence. The scarcity of research on food systems and seeds stood out, mainly regarding the regulatory framework, and water security, closely associated with food production can be mentioned as research gaps. © 2023 Universidade Federal do Parana. All rights reserved.</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Community Perspectives on Inuit Country Food Insecurity in Gjoa Haven, Nunavut</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This paper explores how policies and programs can better support country food security and food sovereignty in Gjoa Haven, Nunavut. Through a series of six focus groups with a total of 74 participants, we explore the challenges that Elders, youth, hunters, food preparers, and program providers face in the access, availability, quality, and use of country food. Despite the diverse representation among focus groups, participants revealed similar challenges across demographics and highlighted how tailored policies and programs can provide complementary solutions that serve more than one purpose. We argue that policies and programs targeting financial and economic challenges; resources and infrastructure; and skills and knowledge will improve country food security and will promote food sovereignty. Ultimately, policies and programs must be community informed and tailored to their current context and community dynamics. However, the recommendations we provide could be adapted to other Arctic communities experiencing similar challenges. © The Arctic Institute of North America.</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,15 +980,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
+          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
+          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Policies and practices of central and sub-national governments for seed commons formation in Japan: will the seeds of the varieties collected and developed be shared?</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Proponents of agroecology and food sovereignty are trying to form seed commons as a framework against the formal seed systems established by governments. However, we argue that the formation of seed commons should not be considered as a dichotomy that distinguishes between the government and stakeholders, including farmers, but rather as a dichotomy that divides the scope of activities into those regulated by law and those that can be determined by farmers at their own discretion. Japan, like many other countries, is a signatory to the International Treaty on Plant Genetic Resources for Food and Agriculture and the International Union for the Protection of New Varieties of Plants, both of which contain important elements for the conservation of agricultural biodiversity and agroecology at the national and local level. Based on the proposed dichotomy, this study aims to explore the possibility of creating seed commons for seed sharing in Japan. We clarify the policies and actual conditions surrounding the access and use of seeds and explore the possibility of creating seed commons. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Food sovereignty and the integral state: Institutionalizing ecological farming</t>
+          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>This article takes up the question of how food sovereignty, and accompanying agricultural models that will help combat climate change, may be institutionalized through policy processes. I draw on the theories of Antonio Gramsci and his successors to discuss how the interwoven nature of the state and civil society, conceptualized as the ‘integral state’, can help inform an analytical approach to food policy change. Based on research that analyzes the work of Canada's two member organizations of La Vía Campesina, Union Paysanne and the National Farmers Union (NFU), I highlight the differences and parallels between food sovereignty struggles taking place in Quebec and those underway elsewhere in the country. I argue that although agricultural policy has the potential to be an important tool in transitioning toward a climate-friendly food system, proponents of food sovereignty would benefit from disengaging from traditional food policy advocacy efforts as these will only lead to incremental reforms. Instead, I suggest that a ‘prefigurative institutionalization’ has the potential to be transformative within and beyond the food system. The concept offers both a political strategy as well as an analytical framework for assessing movements’ efforts related to policy formation and governance. © 2021 Elsevier Ltd</t>
+          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>THE PROSPECTS OF FOOD SOVEREIGNTY IN THE FORMER YUGOSLAV REPUBLICS</t>
+          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The neoliberal approach taken to the transition from socialism to capitalism in the six former Yugoslav republics has revealed its weaknesses in all spheres of economic activities, including food produc-tion. These countries have lost sovereignty with respect to regulating important national policy areas like food trade and production. Liberalisation of the food trade has adversely affected national economies by destroy-ing many small-scale farmers and food producers. Corporate supermarkets have been taking over an ever bigger slice of the retail pie. Social movements are call-ing for direct democratic control over resources and food production to be regained. The article examines the prospects of these countries to overcome the increas-ing food insecurity by introducing food sovereignty. © 2021, Ljubljana University, Faculty of Social Sciences. All rights reserved.</t>
+          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,15 +1376,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subversive Future Seeks Like-Minded Model: On the Mismatch between Visions of Food Sovereignty Futures and Quantified Scenarios of Global Food Futures</t>
+          <t>The importance of vision in food system transformation</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Will we, by 2050, be able to feed a rapidly growing population with healthy and sustainably grown food in a world threatened by systemic environmental crises? There are too many uncertainties for us to predict the long-Term evolution of the global agri-food system, but we can explore a wide range of futures to inform policymaking and public debate on the future of food. This is typically done by creating scenarios (story lines that vividly describe what different futures could look like) and quantifying them with computer simulation models to get numerical estimates of how different aspects of the global agri-food system might evolve under different hypotheses. Among the many scenarios produced over the last twenty years, one would expect to see the future advocated by the food sovereignty movement, which claims to represent roughly two hundred million self-described peasants (small farmers) worldwide. This movement defends a vision of the future based on relocalized, sustainable, and just agri-food systems, self-governed through direct and participatory democratic processes. Yet, food sovereignty is conspicuously absent from quantified scenarios of global food futures. As part of the roundtable, Ethics and the Future of the Global Food System, this essay identifies seven obstacles that undermine the creation of food sovereignty scenarios by examining two attempts at crafting such scenarios.  Copyright © The Author(s), 2021. Published by Cambridge University Press on behalf of the Carnegie Council for Ethics in International Affairs.</t>
+          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,15 +1448,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The power to convene: making sense of the power of food movement organizations in governance processes in the Global North</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dominant food systems, based on industrial methods and corporate control, are in a state of flux. To enable the transition towards more sustainable and just food systems, food movements are claiming new roles in governance. These movements, and the initiatives they spearhead, are associated with a range of labels (e.g., food sovereignty, food justice, and community food security) and use a variety of strategies to enact change. In this paper, we use the concept of relational fields to conduct a post-hoc analysis of nine cases, examining how social movement organizations and other actors actively create new deliberative governance spaces. We argue that successes are related to the “power to convene,” a process-oriented approach that increases movements’ capacity to mobilize; leverage different types of power; and integrate, coordinate, and build a systems-oriented vision. The power to convene and create deliberative spaces is demonstrated in a variety of contexts and often results in outcomes that further movement aims, including policy change and repositioning food movement actors vis-à-vis others in the field. Our findings suggest that success is not only measured as policy outcomes, but as an advantageous repositioning of social movement actors that enables them to be part of governance processes beyond simple policy advocacy. © 2020, Springer Nature B.V.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,15 +1664,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Policy pitfalls and the attempt to institutionalize agroecology in El Salvador 2008-2018</t>
+          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>This paper analyzes the experience of the Salvadoran cooperative movement in pursuing a political project for the institutionalization of agroecology in the years 2008–2018, under two consecutive FMLN governments in 2009 and 2014. Following El Salvador’s “turn to the left”, Salvadoran agrarian reform cooperatives and civil society allies began to allocate organizational resources toward writing public policy measures to incorporate agroecology under the FMLN government’s agricultural social program, the Family Agriculture Plan (PAF). While the cooperative sector took part in active negotiations with the FMLN party for the institutionalization of favorable policies, the former guerrilla party formulized strategies for gaining a multiclass electorate in order to remain in power. With the intention to better understand the attitude and distinct Salvadoran actors, we utilize an anthropology of public policy framework to indicate how expectations of political party legitimacy failed to shape the institutionalization of agroecology in El Salvador. We suggest that the pursuit of agroecological policies is a balancing act of making use of the State to strengthen on the ground efforts without forging organizational disarticulation following changes in government administrations. © 2020, © 2020 Taylor &amp; Francis.</t>
+          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,15 +1808,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Agro-ecological transition of agricultural production systems at imbabura province of Ecuador; [Transição agroecológica de sistemas de produção agrícola na província de imbabura Equador]; [Transición agroecológica de los sistemas de producción agrícola de la provincia de imbabura Ecuador]</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Transitional processes from conventional agricultural systems to agro ecological production systems has been promoted at Imbabura province in Ecuador, but development difficulties have been observed, due to farmer’s decisions for embracing transition, depends not only on the technology and local resources available, but also on several aspects of the surrounding social, economic and institutional system. A research was conducted, in order to characterize the transitional agro ecological degree of production systems at Imbabura province, regarding the social cooperation activity, the natural resources management and the public policies dynamics, A stratified random sample of 50 producers was taken, to whom a questionnaire was applied. Data was analyzed by descriptive statistics. Cramer test was used to determine the relationships of each item to municipalities. Results showed that, in social dynamics, there is a high degree of trust, participation and reciprocity but it is necessary to strengthen exchange networks, also, it was observed a high degree of agro ecological and conservationist practices. Agro ecological transition is limited by public policy dynamics because there are no incentive programs and also there are few institutional incentives to support agro ecological work, even though it is established by the current Food sovereignty law. Participation and used of self-harvest seeds were related to municipality. Otavalo is the municipality that displays greater dynamism and progress in the process of agro-ecological transition. © 2020, Universidad del Zulia. All rights reserved.</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The importance of vision in food system transformation</t>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Despite growing calls for food system transformation, the need to develop a vision to guide that transformation is sometimes overlooked. Vision is essential to inspire, mobilize, and keep a collective of people on track toward their goals. Individual visions can be exhilarating, but the visions that create change are taken up by large groups or movements of movements. A vision is a beginning for transformation, but it requires policy that enables it to be enacted, ideally through democratic processes. The vision, buttressed by policy and democratic governance, is what determines where people are able to buy food, how much they pay, whether farmers earn decent incomes, and whether the food is healthy. Without vision, policies are likely to be incoherent or to work at cross-purposes, as has happened in the farm bill and the European Union’s Common Agricultural Policy. A range of visions generated at different scales, from autonomous community to state to region, can serve as examples for people committed to food system transformation. © 2019 by the Author.</t>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,15 +1880,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>Human ecology and food systems: Insights from the Philippines</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>From hoes to story-telling as "weapons of the weak": Farmers' resistance to neoliberal 2007 multi-product management stabilization plan in Japan</t>
+          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>While neoliberalism has promoted free trade, market rule, and productivist agriculture in the food production system, farmers and their unions in developed countries partially managed to shun the forces of neoliberalism. What are the underpinning strength and factors of such resilience? Discussions have concentrated at national policy and organizational level and tacit resistance at community and farm levels remain unexplored, inter alia from their historical embeddedness perspective. This study explores the way Japanese farmers frame their contemporary political situation with neoliberalism of the late 2000s with a grounded approach of face-to-face interview at a community level. The farmers resist it mobilizing Scott's anthropological notion of "Weapons of the Weak"through story-telling instead of hoes in ancient time (Scott JC, Weapons of the weak: everyday forms of peasant resistance, 1985). In concrete, the farmers resisted a neoliberal policy of Hinmoku Odanteki Keiei Antei Taisaku, or the Multi- Product Management Stabilization Plan (MPP), in the early 2000s, which promoted larger scale farming to pursue the efficiency of scale merits. The policy was first introduced in 2005 as a concept and dominated the agricultural policy scenes from 2007 to 2009, and then its influence disappeared toward 2010. The rise and fall of the concept and policy provide us with rare opportunity to examine the historical embeddedness of the farmers and their resistance to such neoliberal globalization. We conducted interviews with the leaders of cooperative farms and stakeholders in Daisen City, Akita Prefecture, Japan; the study found that farmers' framing of neoliberalism was ambivalent causing partial adoption and resistance. The leaders of the cooperative farms could form the cooperative farms but thought further development difficult because members intended to keep their farming independent. Close frame and discourse analysis revealed that farmers in Japan could express their frustration on neoliberal discourse and policy through multiple tactics of "Weapons of the Weak"by complaining to the leaders, miscalculating the figures, or claiming family-based food sovereignty that "we produce what goes into our family mouths."Such tactics procrastinated the process and eventually stopped the policy. The incident demonstrates how farmers in the network can slow the progress of neoliberal discourse and policy implementation. From the analysis, the notion of "Weapons of the Weak"can be applied as a part of the combination with farmers' historical embeddedness, symbolism of foods, framing, and electoral resistance.  © 2020 The Author(s).</t>
+          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,15 +1988,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NGO perspectives on the social and ethical dimensions of plant genome-editing</t>
+          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Plant genome editing has the potential to become another chapter in the intractable debate that has dogged agricultural biotechnology. In 2016, 107 Nobel Laureates accused Greenpeace of emotional and dogmatic campaigning against agricultural biotechnology and called for governments to defy such campaigning. The Laureates invoke the authority of science to argue that Greenpeace is putting lives at risk by opposing agricultural biotechnology and Golden Rice and is notable in framing Greenpeace as unethical and its views as marginal. This paper examines environmental, food and farming NGOs’ social and ethical concerns about genome editing, situating these concerns in comparison to alternative ethical assessments provided by the Nuffield Council on Bioethics, a key actor in this policy debate. In doing so, we show that participant NGOs and the Nuffield Council on Bioethics share considerable concerns about the social and ethical implications of genome editing. These concerns include choices over problem/solution framing and broader terminology, implications of regulatory and research choices on consumer choice and relations of power. However, GM-engaged NGOs and the Nuffield Council on Bioethics diverge on one important area: the NGOs seek to challenge the existing order and broaden the scope of debate to include deeply political questions regarding agricultural and technological choices. This distinction between the ethical positions means that NGOs provide valuable ethical insight and a useful lens to open up debate and discussion on the role of emerging technologies, such as genome editing, and the future of agriculture and food sovereignty. © 2019, Springer Nature B.V.</t>
+          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2060,15 +2060,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Flux, unrelenting–the struggle for local seed sovereignty in Nicaragua</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Most farmers are not activists. They make, however, their own sense of the world and act–sometimes quite stubbornly–according to that sense given, grasping what they perceive as opportunities, and protecting what they feel as essential for their livelihood. Political projects for Nicaraguan society, international policy-making, corporate strategies and imperial ambitions engage with and affect the varieties grown locally. The article analyses the creativity and political potential, as well as the contradictions and inconsistencies of the quotidian practice of seed saving under extreme constraint in light of the major struggles about Nicaraguan seed legislation. © 2020, © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Do we need to categorize it? Reflections on constituencies and quotas as tools for negotiating difference in the global food sovereignty convergence space</t>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Convergence–as an objective and as a process–designates the coming together of different social actors across strategic, political, ideological, sectoral and geographic divides. In this paper, we analyze the global food sovereignty movement (GFSM) as a convergence space, with a focus on constituencies and quotas as tools to maintain diversity while facilitating convergence. We show how the use of constituencies and quotas has supported two objectives of the GFSM: alliances building and effective direct representation in global policy-making spaces. We conclude by pointing to some convergence challenges the GFSM faces as it expands beyond its agrarian origins. © 2018, © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2132,15 +2132,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2168,15 +2168,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Maritime Food Development Strategy as National Economic Pillar using SWOT Analysis Interpretative Structural Modelling (ISM)</t>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>The rapid growth of population result in demand for food exceeds its supply capacity. The gap between the needs and availability of food is inseparable from the existing policies. The ability of a nation in fulfilling the needs of food affects the state sovereignty. The aim of research is to formulate strategies in promoting food sovereignty in maritime sector. Maritime potential can be viewed from to what extend a nation realizes and exploits the sea. This research used McKinsey 7S method, PEST analysis (Political, Economic, Socio-cultural, Technology), SWOT analysis and Interpretative Structural Modeling (ISM). This research is expected to encourage the government in national maritime food development. Based on the results of SWOT matrix analysis, the SO strategy consists of five strategies. The ST strategy consists of five strategies. The WO strategy consists of five steps while the WT strategy consists of two steps. In the hierarchical structure model, it can be seen that WT-2 Strategy is at the first level. WO-5 strategy is at the level of strategy 2. Level of strategy 3 consists of six sub-strategies. Level of strategy 4 has three sub-strategies. Level of strategy 5 consists of six sub-strategies. © Medwell Journals, 2019</t>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2204,15 +2204,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
+          <t>Codesigning a resilient food system</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2276,15 +2276,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2312,15 +2312,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>History and challenges of Brazilian social movements for the achievement of the right to adequate food</t>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>The historical struggles that Brazil faced to overcome malnutrition coincided with the empowerment of civil society and social movements which played a crucial role in the affirmation of health and food as social rights. After two decades under military dictatorship, Brazil went through a redemocratization process in the 1980s when activism emerged to demand spaces to participate in policy-making regarding the social agenda, including food and nutrition security (FNS). From 1988 onward institutional structures were established: the National Council of FNS (CONSEA) convenes government and civil society sectors to develop and monitor the implementation of policies, systems and actions. Social participation has been at the heart of structural changes achieved since then. Nevertheless, the country faces multiple challenges regarding FNS such as the double burden of disease, increasing use of pesticides and genetically modified seeds, weak regulation of ultra-processed products, and marketing practices that affect the environment, population health, and food sovereignty. This article aims at examining the development of the participatory political system and the role played by Brazilian social movements in the country’s policies on FNS, in addition to outlining challenges faced by those policies. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>Concern over palm oil expansion</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2409,582 +2409,6 @@
         </is>
       </c>
       <c r="H55" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Human ecology and food systems: Insights from the Philippines</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Feeding the world sustainably requires balancing social, economic, and environmental concerns. The food systems concept guides the study of social and environmental processes that influence food and nutrition security. Human ecology conceptually offers insights into the social components of a system and its interaction with environmental change. This paper demonstrates how human ecology helps identify the dominant discourses that influence dominant social drivers in food systems. This is done through documenting the historical legacies of agricultural commodity production systems in the Philippines since Spanish colonization, and the human and ecological implications of this history. The analysis shows the presence of a maladaptive system influenced by market-oriented food security as a dominant discourse. Alternative discourses focused on sovereignty and participation exist in the Philippines, however these are often marginalised from dominant policy and research programs. The paper discusses how weak feedback processes provide possible intervention points in policy or farmer-led activities to explore alternative pathways to food and nutrition security. The paper concludes with highlighting how human ecology offers useful framework for advancing food systems analysis into social, political, and policy dimensions of food activities. Such analysis can help develop new research and policies that require managing the competing discourses of how to achieve sustainable food and nutrition security. © 2018, Society for Human Ecology. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Food security or food sovereignty?: Questioning the paradigm of Indonesian military involvement in agriculture</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Indonesian military (TNI) involvement in the agricultural sector had begun since the 1960s when they had a significant role in a global modernization of agriculture project led by the US government and world donor agencies, namely the Green Revolution. In 2015, TNI signed a MoU with the Ministry of Agriculture in a "Special Efforts Program for Accelerating Food Production" which again delivers an important role to the military in the agricultural sector by implementing a Green Revolution oriented farming. This paper, in contrasts to some of the previous writings, does not examine the right or wrong of this involvement. This study provides a paradigmatic response to a question, why TNI insists on implementing a program that after 50 years has not proven successful in reaching the target of food self-sufficiency? Based on literature studies and analysis of empirical data, this study suggests that there is a paradigmatic misperception among the policy makers, both civil and military, about food security concept. The authors also offer a new implementation framework based on the concept of food sovereignty that can be performed by policy makers in Indonesia and other developing countries. © 2018 CEJISS.</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>The Conflicted State and Agrarian Transformation in Pink Tide Venezuela</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Can radical political-economic transformation be achieved by electoral regimes that have not thoroughly reconstructed the state? Contemporary Venezuela offers an optimal venue for examining this question. The Chavista movement did not replace the previous state: instead, its leaders attempted to reform existing state entities and establish new ones in pursuit of its transformation agenda. It has also used its oil wealth to support cooperatively-oriented economic activity, without necessarily fundamentally altering the property structure. Thus, the social change-oriented political economy exists alongside the traditional one. Focusing on agrarian transformation, we examine ethnographically how these factors have impacted the state's capacity to attain its goal of national food sovereignty. We find that the state's ability to accomplish this objective has been compromised by lack of agency-level capacity, inter-agency conflict and the persistence of the previously-extant agrarian property structure. These dynamics have influenced the state to shift from its initial objective of food sovereignty to a policy of nationalist food security. © 2015 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>The political economy of rentier capitalism and the limits to agrarian transformation in Venezuela</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>This paper explores the contradictions and limits to agrarian transformation under 21st-century socialism in Venezuela. Given the historical destruction wrought by the oil-based accumulation process upon Venezuela's agricultural sector, the symbolic and social importance of an “agrarian revolution” could be seen as a yardstick with which to measure the progress of the Bolivarian Revolution in “sowing the oil”. Eschewing a policy focus on the role of “food sovereignty” and “food security”, the paper analyses how the dynamics of rentier-capital accumulation have played out in the agricultural sector. The paper argues that the macroeconomic framework of the Bolivarian Revolution has diminished the possibility of expanded domestic food production and instead reduced agrarian transformation to contradictory processes of ground rent appropriation. © 2017 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>The agricultural production and food industry development trends in the context of food security of Russia</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Food security, in its function as an integral component of the state’s economic security, is one of the central issues of the state economic policy in most post-Soviet countries. Over the last decade, the food security policy implementation vectors have changed. While at the beginning of the market reforms, the key task of the former Soviet Union countries’ governments was to fill the food market, regardless of the import component, currently, food sovereignty is moving to the forefront, including the availability and quality of food. The present paper attempts to systematize and analyze factors and contradictions that affect the country’s food security. The scientific importance of the work is determined by the comprehensive system approach to the factor analysis of the agricultural sector operation from the perspective of the following aspects: the ongoing foreign policy of the state (the membership in the World Trade Organization and product embargo) and the state financial support mechanism for the agriculture. © 2017. ASERS Publishing. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Codesigning a resilient food system</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Sovereignty, Risk and Biotechnology: Zambia's 2002 GM Controversy in Retrospect</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>The southern African food crisis of 2002 led to one of the most significant controversies over the use of genetically modified (GM) crops in the developing world to date. Zambia's staunch opposition to GM food aid during the crisis is still frequently used as a reference point in debates over GM seed technology in agricultural development, and the morality of advanced biotechnology. This article re-examines the controversy and its contemporary relevance using oral history interviews with key scientists, policy makers and development practitioners engaged in debates and decision-making processes in Zambia in 2002, alongside a review of discourses in the Zambian press. The author argues that, rather than different perceptions of health and environmental risks derived from GM crops, it was questions of sovereign regulatory control of technology in a context of diminished state capacity - and the decline in the Zambian state's capacity for agricultural science research in particular - that played a central role in shaping anti-GM attitudes. In addition, trust in the arguments of GM advocates was diminished by communication efforts which treated Zambian scientists and policy elites as a lay rather than an expert audience. © 2015 International Institute of Social Studies.</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>The Conflicted Nature of Food Security Policy: Balancing Rice, Sugar and Palm Oil in Indonesia</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Given the multiple problems presented by food policy, food security presents a complex dilemma for policy-makers. This paper examines the contradictions presented by competing food security, food self-sufficiency and food sovereignty framings, the challenge of policy-making across multiple levels amidst competing agendas of agricultural commodity production and production for self-provisioning populations, and the need to balance economic development with sustainable food production. From an analysis of rice, palm oil and sugar cases in Indonesia, we conclude that the conflicted nature of food policy needs to be understood in terms of the way specific material and ideational, actor-specific and structural factors working across scale shape outcomes in a highly uneven fashion. We find that this produces a policy field highly resistant to single analytical approaches, opening up the wide range of internally conflicting, related policy questions encompassed by food security-related policy. © 2016 Discipline of Anthropology and Sociology, The University of Western Australia.</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Competing Sovereignties, Contested Processes: Insights from the Venezuelan Food Sovereignty Experiment</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Abstract: This article explores how ‘competing sovereignties’ are shaping the political construction of food sovereignty—broadly defined as ‘the right of peoples to healthy and culturally appropriate food produced through ecologically sound and sustainable methods, and their right to define their own food and agriculture systems'. This study was motivated by a lack of clarity on the ‘sovereignty’ of food sovereignty, as noted by numerous scholars—sovereignty for whom, and how? As there is a growing consensus that there are in fact ‘multiple sovereignties’ of food sovereignty that cut across jurisdictions and scales, there is the question of how these sovereignties are competing with each other in the attempted construction of food sovereignty. This question is becoming ever more relevant as food sovereignty is increasingly adopted into state policy at various levels, calling for state and societal actors to redefine their terms of engagement. This article explores questions of ‘competing sovereignties’ by developing an analytical framework, using the lenses of scale, geography, and institutions, and applying it to Venezuela, where for the past 15 years a food sovereignty experiment has been underway in the context of a dynamic shift in state–society relations. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Concern over palm oil expansion</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>_</t>
         </is>
